--- a/LOGS/5b030195-e834-45c5-904d-85db9cab7b0e/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/5b030195-e834-45c5-904d-85db9cab7b0e/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="151">
   <si>
     <t>line_item_0</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Total inventories</t>
   </si>
   <si>
-    <t>line_item_3</t>
-  </si>
-  <si>
     <t>At 1 January 2021</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
     <t>Disposals</t>
   </si>
   <si>
+    <t>Settlements from Auc</t>
+  </si>
+  <si>
     <t>FX Revaluation</t>
   </si>
   <si>
@@ -191,252 +191,54 @@
     <t>At 31 December 2021</t>
   </si>
   <si>
-    <t>549576</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>571881</t>
-  </si>
-  <si>
-    <t>(419)</t>
-  </si>
-  <si>
-    <t>(342)</t>
-  </si>
-  <si>
-    <t>583140</t>
-  </si>
-  <si>
-    <t>122100</t>
-  </si>
-  <si>
-    <t>18297</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>140407</t>
-  </si>
-  <si>
-    <t>13194</t>
-  </si>
-  <si>
-    <t>(398)</t>
-  </si>
-  <si>
-    <t>(31)</t>
-  </si>
-  <si>
-    <t>153172</t>
-  </si>
-  <si>
-    <t>429968</t>
-  </si>
-  <si>
-    <t>431474</t>
-  </si>
-  <si>
-    <t>3081607</t>
-  </si>
-  <si>
-    <t>(11,852)</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>3124600</t>
-  </si>
-  <si>
-    <t>(12,132)</t>
-  </si>
-  <si>
-    <t>(1,020)</t>
-  </si>
-  <si>
-    <t>3198968</t>
-  </si>
-  <si>
-    <t>1821068</t>
-  </si>
-  <si>
-    <t>94666</t>
-  </si>
-  <si>
-    <t>(10,500)</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1905280</t>
-  </si>
-  <si>
-    <t>103303</t>
-  </si>
-  <si>
-    <t>195424</t>
-  </si>
-  <si>
-    <t>(11,711)</t>
-  </si>
-  <si>
-    <t>(116)</t>
-  </si>
-  <si>
-    <t>2192180</t>
-  </si>
-  <si>
-    <t>1006788</t>
-  </si>
-  <si>
-    <t>1219320</t>
-  </si>
-  <si>
-    <t>66902</t>
-  </si>
-  <si>
-    <t>117580</t>
-  </si>
-  <si>
-    <t>(213)</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>107782</t>
-  </si>
-  <si>
-    <t>104026</t>
-  </si>
-  <si>
-    <t>(1,263)</t>
-  </si>
-  <si>
-    <t>(260)</t>
-  </si>
-  <si>
-    <t>110745</t>
-  </si>
-  <si>
     <t>Cost or valuation</t>
   </si>
   <si>
-    <t>Settlements from Auc</t>
-  </si>
-  <si>
     <t>Depreciation</t>
   </si>
   <si>
     <t>Net book value</t>
   </si>
   <si>
+    <t>Freehold Land &amp;Buildings</t>
+  </si>
+  <si>
+    <t>Plant &amp; Machinery</t>
+  </si>
+  <si>
+    <t>Assets under Construction</t>
+  </si>
+  <si>
     <t>Other Equipment</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
+    <t>header_col_2</t>
+  </si>
+  <si>
     <t>Adjustments</t>
   </si>
   <si>
     <t>Amortisation</t>
   </si>
   <si>
-    <t>96148</t>
-  </si>
-  <si>
-    <t>4918</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>101085</t>
-  </si>
-  <si>
-    <t>1847</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>102939</t>
-  </si>
-  <si>
-    <t>84869</t>
-  </si>
-  <si>
-    <t>3900</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>87759</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>90778</t>
-  </si>
-  <si>
-    <t>12161</t>
-  </si>
-  <si>
-    <t>13326</t>
-  </si>
-  <si>
-    <t>99365</t>
-  </si>
-  <si>
-    <t>99382</t>
-  </si>
-  <si>
-    <t>(324)</t>
-  </si>
-  <si>
-    <t>99058</t>
-  </si>
-  <si>
-    <t>8869</t>
-  </si>
-  <si>
-    <t>10531</t>
-  </si>
-  <si>
-    <t>20446</t>
-  </si>
-  <si>
-    <t>11466</t>
-  </si>
-  <si>
-    <t>(55)</t>
-  </si>
-  <si>
-    <t>31857</t>
-  </si>
-  <si>
-    <t>67201</t>
-  </si>
-  <si>
-    <t>78936</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
+    <t>Computer Software</t>
+  </si>
+  <si>
+    <t>Other Intangible Assets</t>
+  </si>
+  <si>
     <t>Goodwill</t>
   </si>
   <si>
+    <t>Note 14. Intangible assets and Goodwill</t>
+  </si>
+  <si>
     <t>Defined benefit obligation</t>
   </si>
   <si>
@@ -512,84 +314,12 @@
     <t>Unused Amounts Reversed</t>
   </si>
   <si>
-    <t>126840</t>
-  </si>
-  <si>
-    <t>5545</t>
-  </si>
-  <si>
-    <t>(5,005)</t>
-  </si>
-  <si>
-    <t>(2,557)</t>
-  </si>
-  <si>
-    <t>124823</t>
-  </si>
-  <si>
-    <t>118775</t>
-  </si>
-  <si>
-    <t>6048</t>
-  </si>
-  <si>
-    <t>Benefits</t>
-  </si>
-  <si>
-    <t>123920</t>
-  </si>
-  <si>
-    <t>24619</t>
-  </si>
-  <si>
-    <t>(21,115)</t>
-  </si>
-  <si>
-    <t>(584)</t>
-  </si>
-  <si>
-    <t>115567</t>
-  </si>
-  <si>
-    <t>11273</t>
-  </si>
-  <si>
-    <t>22335</t>
-  </si>
-  <si>
-    <t>2465</t>
-  </si>
-  <si>
-    <t>(1,968)</t>
-  </si>
-  <si>
-    <t>22832</t>
-  </si>
-  <si>
-    <t>4707</t>
-  </si>
-  <si>
-    <t>18125</t>
+    <t>Employee Benefits</t>
   </si>
   <si>
     <t>Environmental</t>
   </si>
   <si>
-    <t>17224</t>
-  </si>
-  <si>
-    <t>5871</t>
-  </si>
-  <si>
-    <t>(760)</t>
-  </si>
-  <si>
-    <t>3707</t>
-  </si>
-  <si>
-    <t>18628</t>
-  </si>
-  <si>
     <t>Deferred Consideration on acquired property (Note 9)</t>
   </si>
   <si>
@@ -729,9 +459,6 @@
   </si>
   <si>
     <t>At the effective income tax rate of -3% (2021: 0%).</t>
-  </si>
-  <si>
-    <t>header_col_2</t>
   </si>
   <si>
     <t>Property, plant and equipment</t>
@@ -1381,7 +1108,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>-26729</v>
@@ -1390,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -1398,7 +1125,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>40398</v>
@@ -1407,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -1415,7 +1142,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>13669</v>
@@ -1424,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -1432,7 +1159,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>822</v>
@@ -1441,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>2022</v>
@@ -1449,7 +1176,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>-1188</v>
@@ -1458,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -1466,7 +1193,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>-366</v>
@@ -1475,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>2022</v>
@@ -1483,7 +1210,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>4579</v>
@@ -1492,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -1500,7 +1227,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>-4579</v>
@@ -1509,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>2022</v>
@@ -1517,7 +1244,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1526,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>2022</v>
@@ -1534,7 +1261,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>-21328</v>
@@ -1543,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>2022</v>
@@ -1551,7 +1278,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>34631</v>
@@ -1560,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>2022</v>
@@ -1568,7 +1295,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>13303</v>
@@ -1577,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>2022</v>
@@ -1618,7 +1345,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>12813</v>
@@ -1635,7 +1362,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>7619</v>
@@ -1652,7 +1379,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>2078</v>
@@ -1669,7 +1396,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>2078</v>
@@ -1686,7 +1413,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>7965</v>
@@ -1703,7 +1430,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>2078</v>
@@ -1720,7 +1447,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>34631</v>
@@ -1737,7 +1464,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>14947</v>
@@ -1754,7 +1481,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>8888</v>
@@ -1771,7 +1498,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>3232</v>
@@ -1788,7 +1515,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>3232</v>
@@ -1805,7 +1532,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>8080</v>
@@ -1822,7 +1549,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -1839,7 +1566,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>40398</v>
@@ -1889,13 +1616,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>5.25</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1906,13 +1633,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1923,13 +1650,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>2.5</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1940,13 +1667,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>2.5</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1990,7 +1717,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>218604</v>
@@ -2007,7 +1734,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>1561</v>
@@ -2024,7 +1751,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>99331</v>
@@ -2055,7 +1782,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>210738</v>
@@ -2072,7 +1799,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>1793</v>
@@ -2089,7 +1816,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>106815</v>
@@ -2125,652 +1852,1150 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2">
-        <v>20861</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>126840</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3">
-        <v>28739</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>5545</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4">
-        <v>-22729</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>-5005</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5">
-        <v>-1021</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>-2557</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6">
-        <v>25850</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6">
+        <v>124823</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7">
-        <v>20229115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7">
+        <v>118775</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8">
-        <v>202216735</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="C8">
+        <v>6048</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11">
+      <c r="C12">
+        <v>123920</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>24619</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>-21115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>-584</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>126840</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>115567</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>11273</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>22335</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20">
+        <v>2465</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <v>-1968</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>22832</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>4707</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>18125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>17224</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>5871</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>-760</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>22335</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>3707</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>18628</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>20861</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37">
+        <v>28739</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>-22729</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <v>-1021</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>25850</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>9115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>16735</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
         <v>19791</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12">
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47">
         <v>4666</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13">
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48">
         <v>-2526</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49">
         <v>-1070</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15">
+      <c r="C50">
         <v>20861</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16">
-        <v>202111502</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="C51">
+        <v>11502</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17">
-        <v>20219359</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18">
+      <c r="C52">
+        <v>9359</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53">
         <v>170036</v>
       </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19">
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54">
         <v>36749</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20">
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55">
         <v>-29702</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21">
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56">
         <v>-3578</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22">
+      <c r="C57">
         <v>173505</v>
       </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23">
+      <c r="C58">
         <v>132597</v>
       </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24">
+      <c r="C59">
         <v>40908</v>
       </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27">
+      <c r="C63">
         <v>160935</v>
       </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28">
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64">
         <v>35156</v>
       </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29">
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65">
         <v>-24401</v>
       </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30">
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66">
         <v>-1654</v>
       </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31">
+      <c r="C67">
         <v>170036</v>
       </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32">
+      <c r="C68">
         <v>130776</v>
       </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33">
+      <c r="C69">
         <v>39260</v>
       </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>99</v>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +3033,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>17000</v>
@@ -2890,7 +3115,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>32200</v>
@@ -3005,7 +3230,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>2078456</v>
@@ -3022,7 +3247,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>31830</v>
@@ -3039,7 +3264,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>1211</v>
@@ -3056,7 +3281,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>2111497</v>
@@ -3073,7 +3298,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>1933271</v>
@@ -3090,7 +3315,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>31733</v>
@@ -3107,7 +3332,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>2136</v>
@@ -3124,7 +3349,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>1967140</v>
@@ -3174,7 +3399,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>1769</v>
@@ -3191,7 +3416,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3208,7 +3433,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3225,7 +3450,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>8340</v>
@@ -3242,7 +3467,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>9002</v>
@@ -3259,7 +3484,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>19111</v>
@@ -3276,7 +3501,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>1907</v>
@@ -3293,7 +3518,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>10766</v>
@@ -3310,7 +3535,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>6500</v>
@@ -3327,7 +3552,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3344,7 +3569,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>5063</v>
@@ -3361,7 +3586,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>24236</v>
@@ -3411,7 +3636,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>-481</v>
@@ -3428,7 +3653,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>-18362</v>
@@ -3445,7 +3670,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>-14751</v>
@@ -3462,7 +3687,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>-33594</v>
@@ -3479,7 +3704,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3496,7 +3721,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>-19802</v>
@@ -3513,7 +3738,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>-27007</v>
@@ -3530,7 +3755,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>-46809</v>
@@ -3580,7 +3805,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>-195424</v>
@@ -3597,7 +3822,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>-17601</v>
@@ -3614,7 +3839,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>-3255</v>
@@ -3631,7 +3856,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>-216280</v>
@@ -3648,7 +3873,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3665,7 +3890,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3682,7 +3907,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3699,7 +3924,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3716,7 +3941,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3733,7 +3958,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -3856,7 +4081,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>977</v>
@@ -3873,7 +4098,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>977</v>
@@ -3890,7 +4115,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3907,7 +4132,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>64</v>
@@ -3924,7 +4149,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>64</v>
@@ -3941,7 +4166,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -3991,7 +4216,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>-11490</v>
@@ -4008,7 +4233,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <v>-7221</v>
@@ -4025,7 +4250,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>-18711</v>
@@ -4042,7 +4267,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C5">
         <v>-5674</v>
@@ -4059,7 +4284,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="C6">
         <v>-8053</v>
@@ -4076,7 +4301,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>-13727</v>
@@ -4126,10 +4351,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="C2">
         <v>340</v>
@@ -4146,10 +4371,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>-2191</v>
@@ -4166,10 +4391,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>-7648</v>
@@ -4186,10 +4411,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>-9499</v>
@@ -4206,10 +4431,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -4226,7 +4451,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4243,10 +4468,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>-10041</v>
@@ -4263,10 +4488,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>-10041</v>
@@ -4283,10 +4508,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="C10">
         <v>4466</v>
@@ -4303,10 +4528,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4323,10 +4548,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>-4336</v>
@@ -4343,10 +4568,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>-130</v>
@@ -4363,10 +4588,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -4383,7 +4608,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4400,10 +4625,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>-22429</v>
@@ -4420,10 +4645,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="C17">
         <v>-22429</v>
@@ -4473,7 +4698,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>31939</v>
@@ -4490,7 +4715,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4507,7 +4732,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <v>-10041</v>
@@ -4524,7 +4749,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>7648</v>
@@ -4541,7 +4766,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -4558,7 +4783,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>29581</v>
@@ -4575,7 +4800,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="C8">
         <v>44392</v>
@@ -4592,7 +4817,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="C9">
         <v>7153</v>
@@ -4609,7 +4834,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>-22429</v>
@@ -4626,7 +4851,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <v>4336</v>
@@ -4643,7 +4868,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="C12">
         <v>-1513</v>
@@ -4660,7 +4885,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="C13">
         <v>31939</v>
@@ -4710,7 +4935,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>-318934</v>
@@ -4727,7 +4952,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>-318934</v>
@@ -4744,7 +4969,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>-95680</v>
@@ -4761,7 +4986,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>2840</v>
@@ -4778,10 +5003,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>-2191</v>
@@ -4798,10 +5023,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>85532</v>
@@ -4818,10 +5043,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>-9499</v>
@@ -4838,7 +5063,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="C9">
         <v>-65471</v>
@@ -4855,7 +5080,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="C10">
         <v>-65471</v>
@@ -4872,7 +5097,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>-19641</v>
@@ -4889,7 +5114,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>-102</v>
@@ -4906,10 +5131,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4926,10 +5151,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C14">
         <v>19613</v>
@@ -4946,10 +5171,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C15">
         <v>-130</v>
@@ -4994,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -5002,7 +5227,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="C2">
         <v>-20716</v>
@@ -5014,7 +5239,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G2">
         <v>2022</v>
@@ -5022,7 +5247,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5034,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G3">
         <v>2022</v>
@@ -5042,7 +5267,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>-3991</v>
@@ -5054,7 +5279,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G4">
         <v>2022</v>
@@ -5062,7 +5287,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>-89</v>
@@ -5074,7 +5299,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G5">
         <v>2022</v>
@@ -5082,7 +5307,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5094,7 +5319,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G6">
         <v>2022</v>
@@ -5102,7 +5327,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>29581</v>
@@ -5114,7 +5339,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G7">
         <v>2022</v>
@@ -5122,10 +5347,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C8">
         <v>29581</v>
@@ -5137,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G8">
         <v>2022</v>
@@ -5145,10 +5370,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5160,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G9">
         <v>2022</v>
@@ -5168,10 +5393,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C10">
         <v>29581</v>
@@ -5183,7 +5408,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G10">
         <v>2022</v>
@@ -5191,7 +5416,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>-17632</v>
@@ -5203,7 +5428,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G11">
         <v>2021</v>
@@ -5211,7 +5436,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -5223,7 +5448,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G12">
         <v>2021</v>
@@ -5231,7 +5456,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>-4100</v>
@@ -5243,7 +5468,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G13">
         <v>2021</v>
@@ -5251,7 +5476,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>-3202</v>
@@ -5263,7 +5488,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G14">
         <v>2021</v>
@@ -5271,7 +5496,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -5283,7 +5508,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G15">
         <v>2021</v>
@@ -5291,7 +5516,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="C16">
         <v>31939</v>
@@ -5303,7 +5528,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G16">
         <v>2021</v>
@@ -5311,10 +5536,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>34171</v>
@@ -5326,7 +5551,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G17">
         <v>2021</v>
@@ -5334,10 +5559,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C18">
         <v>-2232</v>
@@ -5349,7 +5574,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G18">
         <v>2021</v>
@@ -5357,10 +5582,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C19">
         <v>31939</v>
@@ -5372,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G19">
         <v>2021</v>
@@ -5380,7 +5605,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="C20">
         <v>3153</v>
@@ -5392,7 +5617,7 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G20">
         <v>2022</v>
@@ -5400,7 +5625,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5412,7 +5637,7 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G21">
         <v>2022</v>
@@ -5420,7 +5645,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5432,7 +5657,7 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G22">
         <v>2022</v>
@@ -5440,7 +5665,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>-2641</v>
@@ -5452,7 +5677,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G23">
         <v>2022</v>
@@ -5460,7 +5685,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="C24">
         <v>-7648</v>
@@ -5472,7 +5697,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G24">
         <v>2022</v>
@@ -5480,7 +5705,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5492,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G25">
         <v>2022</v>
@@ -5500,10 +5725,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5515,7 +5740,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G26">
         <v>2022</v>
@@ -5523,10 +5748,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5538,7 +5763,7 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G27">
         <v>2022</v>
@@ -5546,10 +5771,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5561,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G28">
         <v>2022</v>
@@ -5569,7 +5794,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -5581,7 +5806,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G29">
         <v>2021</v>
@@ -5589,7 +5814,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5601,7 +5826,7 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G30">
         <v>2021</v>
@@ -5609,7 +5834,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5621,7 +5846,7 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G31">
         <v>2021</v>
@@ -5629,7 +5854,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <v>1244</v>
@@ -5641,7 +5866,7 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G32">
         <v>2021</v>
@@ -5649,7 +5874,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="C33">
         <v>-4336</v>
@@ -5661,7 +5886,7 @@
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G33">
         <v>2021</v>
@@ -5669,7 +5894,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5681,7 +5906,7 @@
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G34">
         <v>2021</v>
@@ -5689,10 +5914,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5704,7 +5929,7 @@
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G35">
         <v>2021</v>
@@ -5712,10 +5937,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5727,7 +5952,7 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G36">
         <v>2021</v>
@@ -5735,10 +5960,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5750,7 +5975,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="G37">
         <v>2021</v>
@@ -5791,7 +6016,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>32406</v>
@@ -5808,7 +6033,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>78006</v>
@@ -6690,1029 +6915,2330 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
+      <c r="C2">
+        <v>549576</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F2">
-        <v>208</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>22152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>571881</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>-419</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>12020</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>-342</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>583140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="C13">
+        <v>122100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>18297</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>140407</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>13194</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>-398</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>-31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>153172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6">
-        <v>208</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="C23">
+        <v>429968</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>431474</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>3081607</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>-11852</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>54401</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>444</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="F29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>3124600</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>-12132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>87520</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>-1020</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10">
-        <v>208</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>3198968</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11">
-        <v>208</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15">
-        <v>208</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20">
-        <v>208</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23">
-        <v>3698293</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24">
-        <v>117580</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25">
-        <v>-12065</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26">
-        <v>663</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27">
-        <v>3804471</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28">
-        <v>104026</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29">
-        <v>-13814</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C36">
+        <v>1821068</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
         <v>54</v>
       </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30">
-        <v>-1622</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31">
-        <v>3893061</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32">
-        <v>1943376</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33">
-        <v>112963</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34">
-        <v>-10500</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
-      </c>
       <c r="F36">
-        <v>2045895</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>94666</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>-10500</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>1905280</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>103303</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>195424</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>-11711</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>-116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>2192180</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>1006788</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>1219320</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>66902</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>117580</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>-213</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>-76553</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>107782</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>104026</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>-1263</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>-99540</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>-260</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>110745</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69">
+        <v>110745</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>107782</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>208</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76">
+        <v>208</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F78">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86">
+        <v>208</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91">
+        <v>208</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94">
+        <v>3698293</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>117580</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96">
+        <v>-12065</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>663</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>3804471</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100">
+        <v>104026</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>-13814</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103">
+        <v>-1622</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>57</v>
+      </c>
+      <c r="F103">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104">
+        <v>3893061</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105">
+        <v>1943376</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106">
+        <v>112963</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107">
+        <v>-10500</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109">
+        <v>2045895</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110">
         <v>116497</v>
       </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>57</v>
+      </c>
+      <c r="F110">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
         <v>48</v>
       </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38">
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111">
         <v>195424</v>
       </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39">
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>57</v>
+      </c>
+      <c r="F111">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112">
         <v>-12109</v>
       </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40">
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113">
         <v>-147</v>
       </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41">
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114">
         <v>2345560</v>
       </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42">
+      <c r="B115" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115">
         <v>1547501</v>
       </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>57</v>
+      </c>
+      <c r="F115">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43">
+      <c r="B116" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116">
         <v>1758576</v>
       </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>99</v>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>57</v>
+      </c>
+      <c r="F116">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -7722,369 +9248,378 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>96148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2">
-        <v>126174</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>4918</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4">
-        <v>-1777</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5">
-        <v>2817</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>101085</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6">
-        <v>127214</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>1847</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8">
-        <v>-1051</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>102939</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9">
-        <v>126163</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>84869</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>3900</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>-1027</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
       <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>87759</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>3006</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
       <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>131</v>
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8092,424 +9627,1310 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>90778</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17">
-        <v>2022126163</v>
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>131</v>
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>2022</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>12161</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18">
-        <v>2021127214</v>
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>131</v>
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>13326</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19">
-        <v>321687</v>
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>2021</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>99365</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20">
-        <v>4918</v>
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>2021</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21">
-        <v>-1777</v>
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>2022</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>111</v>
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22">
-        <v>2853</v>
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>119</v>
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23">
-        <v>327681</v>
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>99382</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24">
-        <v>1847</v>
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>2021</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25">
-        <v>-1368</v>
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G25">
+        <v>2022</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>121</v>
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>-324</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26">
-        <v>328160</v>
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G26">
+        <v>2022</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>122</v>
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>99058</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27">
-        <v>93738</v>
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G27">
+        <v>2022</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>123</v>
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>8869</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28">
-        <v>14431</v>
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <v>2021</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>10531</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>2022</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>1027</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <v>108205</v>
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>2022</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31">
-        <v>14472</v>
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>2022</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>20446</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32">
-        <v>-42</v>
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G32">
+        <v>2021</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="s">
-        <v>127</v>
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <v>11466</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33">
-        <v>122635</v>
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <v>2022</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>128</v>
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>-55</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34">
-        <v>205525</v>
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="G34">
+        <v>2022</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35">
+        <v>31857</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>67201</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>78936</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <v>126174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>-1777</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41">
+        <v>2817</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>127214</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>-1051</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45">
+        <v>126163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>126163</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>127214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>321687</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>4918</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>-1777</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>2853</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>327681</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>1847</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>-1368</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>328160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>93738</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>14431</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>108205</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <v>14472</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70">
+        <v>-42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71">
+        <v>122635</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72">
+        <v>205525</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73">
         <v>219476</v>
       </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>99</v>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -8547,7 +10968,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>-21328</v>
@@ -8564,7 +10985,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>34631</v>
@@ -8581,7 +11002,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>13303</v>
@@ -8598,7 +11019,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>-4579</v>
@@ -8615,7 +11036,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>-26729</v>
@@ -8632,7 +11053,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>40398</v>
@@ -8649,7 +11070,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>13669</v>
@@ -8666,7 +11087,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>-4668</v>
